--- a/resources/data-imports/Items/trinkets.xlsx
+++ b/resources/data-imports/Items/trinkets.xlsx
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.76</v>
+        <v>0.05</v>
       </c>
       <c r="BO2">
-        <v>0.76</v>
+        <v>0.05</v>
       </c>
       <c r="BP2">
-        <v>0.76</v>
+        <v>0.05</v>
       </c>
       <c r="BQ2">
-        <v>0.76</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:72">
@@ -1312,16 +1312,16 @@
         <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.54</v>
+        <v>0.08</v>
       </c>
       <c r="BO3">
-        <v>0.54</v>
+        <v>0.08</v>
       </c>
       <c r="BP3">
-        <v>0.54</v>
+        <v>0.08</v>
       </c>
       <c r="BQ3">
-        <v>0.54</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4" spans="1:72">
@@ -1434,16 +1434,16 @@
         <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.57</v>
+        <v>0.1</v>
       </c>
       <c r="BO4">
-        <v>0.57</v>
+        <v>0.1</v>
       </c>
       <c r="BP4">
-        <v>0.57</v>
+        <v>0.1</v>
       </c>
       <c r="BQ4">
-        <v>0.57</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:72">
@@ -1556,16 +1556,16 @@
         <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.6</v>
+        <v>0.13</v>
       </c>
       <c r="BO5">
-        <v>0.6</v>
+        <v>0.13</v>
       </c>
       <c r="BP5">
-        <v>0.6</v>
+        <v>0.13</v>
       </c>
       <c r="BQ5">
-        <v>0.6</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6" spans="1:72">
@@ -1678,16 +1678,16 @@
         <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.62</v>
+        <v>0.16</v>
       </c>
       <c r="BO6">
-        <v>0.62</v>
+        <v>0.16</v>
       </c>
       <c r="BP6">
-        <v>0.62</v>
+        <v>0.16</v>
       </c>
       <c r="BQ6">
-        <v>0.62</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7" spans="1:72">
@@ -1800,16 +1800,16 @@
         <v>0</v>
       </c>
       <c r="BN7">
-        <v>0.65</v>
+        <v>0.19</v>
       </c>
       <c r="BO7">
-        <v>0.65</v>
+        <v>0.19</v>
       </c>
       <c r="BP7">
-        <v>0.65</v>
+        <v>0.19</v>
       </c>
       <c r="BQ7">
-        <v>0.65</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="8" spans="1:72">
@@ -1922,16 +1922,16 @@
         <v>0</v>
       </c>
       <c r="BN8">
-        <v>0.68</v>
+        <v>0.21</v>
       </c>
       <c r="BO8">
-        <v>0.68</v>
+        <v>0.21</v>
       </c>
       <c r="BP8">
-        <v>0.68</v>
+        <v>0.21</v>
       </c>
       <c r="BQ8">
-        <v>0.68</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="9" spans="1:72">
@@ -2044,16 +2044,16 @@
         <v>0</v>
       </c>
       <c r="BN9">
-        <v>0.7</v>
+        <v>0.24</v>
       </c>
       <c r="BO9">
-        <v>0.7</v>
+        <v>0.24</v>
       </c>
       <c r="BP9">
-        <v>0.7</v>
+        <v>0.24</v>
       </c>
       <c r="BQ9">
-        <v>0.7</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="10" spans="1:72">
@@ -2166,16 +2166,16 @@
         <v>0</v>
       </c>
       <c r="BN10">
-        <v>0.73</v>
+        <v>0.27</v>
       </c>
       <c r="BO10">
-        <v>0.73</v>
+        <v>0.27</v>
       </c>
       <c r="BP10">
-        <v>0.73</v>
+        <v>0.27</v>
       </c>
       <c r="BQ10">
-        <v>0.73</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="11" spans="1:72">
@@ -2288,16 +2288,16 @@
         <v>0</v>
       </c>
       <c r="BN11">
-        <v>0.51</v>
+        <v>0.3</v>
       </c>
       <c r="BO11">
-        <v>0.51</v>
+        <v>0.3</v>
       </c>
       <c r="BP11">
-        <v>0.51</v>
+        <v>0.3</v>
       </c>
       <c r="BQ11">
-        <v>0.51</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:72">
@@ -2410,16 +2410,16 @@
         <v>0</v>
       </c>
       <c r="BN12">
-        <v>0.79</v>
+        <v>0.32</v>
       </c>
       <c r="BO12">
-        <v>0.79</v>
+        <v>0.32</v>
       </c>
       <c r="BP12">
-        <v>0.79</v>
+        <v>0.32</v>
       </c>
       <c r="BQ12">
-        <v>0.79</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="13" spans="1:72">
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="BN13">
-        <v>0.81</v>
+        <v>0.35</v>
       </c>
       <c r="BO13">
-        <v>0.81</v>
+        <v>0.35</v>
       </c>
       <c r="BP13">
-        <v>0.81</v>
+        <v>0.35</v>
       </c>
       <c r="BQ13">
-        <v>0.81</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="14" spans="1:72">
@@ -2654,16 +2654,16 @@
         <v>0</v>
       </c>
       <c r="BN14">
-        <v>0.84</v>
+        <v>0.38</v>
       </c>
       <c r="BO14">
-        <v>0.84</v>
+        <v>0.38</v>
       </c>
       <c r="BP14">
-        <v>0.84</v>
+        <v>0.38</v>
       </c>
       <c r="BQ14">
-        <v>0.84</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="15" spans="1:72">
@@ -2776,16 +2776,16 @@
         <v>0</v>
       </c>
       <c r="BN15">
-        <v>0.87</v>
+        <v>0.4</v>
       </c>
       <c r="BO15">
-        <v>0.87</v>
+        <v>0.4</v>
       </c>
       <c r="BP15">
-        <v>0.87</v>
+        <v>0.4</v>
       </c>
       <c r="BQ15">
-        <v>0.87</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:72">
@@ -2898,16 +2898,16 @@
         <v>0</v>
       </c>
       <c r="BN16">
-        <v>0.9</v>
+        <v>0.43</v>
       </c>
       <c r="BO16">
-        <v>0.9</v>
+        <v>0.43</v>
       </c>
       <c r="BP16">
-        <v>0.9</v>
+        <v>0.43</v>
       </c>
       <c r="BQ16">
-        <v>0.9</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="17" spans="1:72">
@@ -3020,16 +3020,16 @@
         <v>0</v>
       </c>
       <c r="BN17">
-        <v>0.92</v>
+        <v>0.46</v>
       </c>
       <c r="BO17">
-        <v>0.92</v>
+        <v>0.46</v>
       </c>
       <c r="BP17">
-        <v>0.92</v>
+        <v>0.46</v>
       </c>
       <c r="BQ17">
-        <v>0.92</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="18" spans="1:72">
@@ -3142,16 +3142,16 @@
         <v>0</v>
       </c>
       <c r="BN18">
-        <v>0.95</v>
+        <v>0.49</v>
       </c>
       <c r="BO18">
-        <v>0.95</v>
+        <v>0.49</v>
       </c>
       <c r="BP18">
-        <v>0.95</v>
+        <v>0.49</v>
       </c>
       <c r="BQ18">
-        <v>0.95</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="19" spans="1:72">
@@ -3264,16 +3264,16 @@
         <v>0</v>
       </c>
       <c r="BN19">
-        <v>0.3</v>
+        <v>0.51</v>
       </c>
       <c r="BO19">
-        <v>0.3</v>
+        <v>0.51</v>
       </c>
       <c r="BP19">
-        <v>0.3</v>
+        <v>0.51</v>
       </c>
       <c r="BQ19">
-        <v>0.3</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="20" spans="1:72">
@@ -3386,16 +3386,16 @@
         <v>0</v>
       </c>
       <c r="BN20">
-        <v>0.08</v>
+        <v>0.54</v>
       </c>
       <c r="BO20">
-        <v>0.08</v>
+        <v>0.54</v>
       </c>
       <c r="BP20">
-        <v>0.08</v>
+        <v>0.54</v>
       </c>
       <c r="BQ20">
-        <v>0.08</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="21" spans="1:72">
@@ -3508,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="BN21">
-        <v>0.1</v>
+        <v>0.57</v>
       </c>
       <c r="BO21">
-        <v>0.1</v>
+        <v>0.57</v>
       </c>
       <c r="BP21">
-        <v>0.1</v>
+        <v>0.57</v>
       </c>
       <c r="BQ21">
-        <v>0.1</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="22" spans="1:72">
@@ -3630,16 +3630,16 @@
         <v>0</v>
       </c>
       <c r="BN22">
-        <v>0.13</v>
+        <v>0.6</v>
       </c>
       <c r="BO22">
-        <v>0.13</v>
+        <v>0.6</v>
       </c>
       <c r="BP22">
-        <v>0.13</v>
+        <v>0.6</v>
       </c>
       <c r="BQ22">
-        <v>0.13</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="1:72">
@@ -3752,16 +3752,16 @@
         <v>0</v>
       </c>
       <c r="BN23">
-        <v>0.16</v>
+        <v>0.62</v>
       </c>
       <c r="BO23">
-        <v>0.16</v>
+        <v>0.62</v>
       </c>
       <c r="BP23">
-        <v>0.16</v>
+        <v>0.62</v>
       </c>
       <c r="BQ23">
-        <v>0.16</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="24" spans="1:72">
@@ -3874,16 +3874,16 @@
         <v>0</v>
       </c>
       <c r="BN24">
-        <v>0.19</v>
+        <v>0.65</v>
       </c>
       <c r="BO24">
-        <v>0.19</v>
+        <v>0.65</v>
       </c>
       <c r="BP24">
-        <v>0.19</v>
+        <v>0.65</v>
       </c>
       <c r="BQ24">
-        <v>0.19</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="25" spans="1:72">
@@ -3996,16 +3996,16 @@
         <v>0</v>
       </c>
       <c r="BN25">
-        <v>0.21</v>
+        <v>0.68</v>
       </c>
       <c r="BO25">
-        <v>0.21</v>
+        <v>0.68</v>
       </c>
       <c r="BP25">
-        <v>0.21</v>
+        <v>0.68</v>
       </c>
       <c r="BQ25">
-        <v>0.21</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="26" spans="1:72">
@@ -4118,16 +4118,16 @@
         <v>0</v>
       </c>
       <c r="BN26">
-        <v>0.24</v>
+        <v>0.7</v>
       </c>
       <c r="BO26">
-        <v>0.24</v>
+        <v>0.7</v>
       </c>
       <c r="BP26">
-        <v>0.24</v>
+        <v>0.7</v>
       </c>
       <c r="BQ26">
-        <v>0.24</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="27" spans="1:72">
@@ -4240,16 +4240,16 @@
         <v>0</v>
       </c>
       <c r="BN27">
-        <v>0.27</v>
+        <v>0.73</v>
       </c>
       <c r="BO27">
-        <v>0.27</v>
+        <v>0.73</v>
       </c>
       <c r="BP27">
-        <v>0.27</v>
+        <v>0.73</v>
       </c>
       <c r="BQ27">
-        <v>0.27</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="28" spans="1:72">
@@ -4362,16 +4362,16 @@
         <v>0</v>
       </c>
       <c r="BN28">
-        <v>0.05</v>
+        <v>0.76</v>
       </c>
       <c r="BO28">
-        <v>0.05</v>
+        <v>0.76</v>
       </c>
       <c r="BP28">
-        <v>0.05</v>
+        <v>0.76</v>
       </c>
       <c r="BQ28">
-        <v>0.05</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="29" spans="1:72">
@@ -4484,16 +4484,16 @@
         <v>0</v>
       </c>
       <c r="BN29">
-        <v>0.32</v>
+        <v>0.79</v>
       </c>
       <c r="BO29">
-        <v>0.32</v>
+        <v>0.79</v>
       </c>
       <c r="BP29">
-        <v>0.32</v>
+        <v>0.79</v>
       </c>
       <c r="BQ29">
-        <v>0.32</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="30" spans="1:72">
@@ -4606,16 +4606,16 @@
         <v>0</v>
       </c>
       <c r="BN30">
-        <v>0.35</v>
+        <v>0.81</v>
       </c>
       <c r="BO30">
-        <v>0.35</v>
+        <v>0.81</v>
       </c>
       <c r="BP30">
-        <v>0.35</v>
+        <v>0.81</v>
       </c>
       <c r="BQ30">
-        <v>0.35</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="31" spans="1:72">
@@ -4728,16 +4728,16 @@
         <v>0</v>
       </c>
       <c r="BN31">
-        <v>0.38</v>
+        <v>0.84</v>
       </c>
       <c r="BO31">
-        <v>0.38</v>
+        <v>0.84</v>
       </c>
       <c r="BP31">
-        <v>0.38</v>
+        <v>0.84</v>
       </c>
       <c r="BQ31">
-        <v>0.38</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="32" spans="1:72">
@@ -4850,16 +4850,16 @@
         <v>0</v>
       </c>
       <c r="BN32">
-        <v>0.4</v>
+        <v>0.87</v>
       </c>
       <c r="BO32">
-        <v>0.4</v>
+        <v>0.87</v>
       </c>
       <c r="BP32">
-        <v>0.4</v>
+        <v>0.87</v>
       </c>
       <c r="BQ32">
-        <v>0.4</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="33" spans="1:72">
@@ -4972,16 +4972,16 @@
         <v>0</v>
       </c>
       <c r="BN33">
-        <v>0.43</v>
+        <v>0.9</v>
       </c>
       <c r="BO33">
-        <v>0.43</v>
+        <v>0.9</v>
       </c>
       <c r="BP33">
-        <v>0.43</v>
+        <v>0.9</v>
       </c>
       <c r="BQ33">
-        <v>0.43</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="34" spans="1:72">
@@ -5094,16 +5094,16 @@
         <v>0</v>
       </c>
       <c r="BN34">
-        <v>0.46</v>
+        <v>0.92</v>
       </c>
       <c r="BO34">
-        <v>0.46</v>
+        <v>0.92</v>
       </c>
       <c r="BP34">
-        <v>0.46</v>
+        <v>0.92</v>
       </c>
       <c r="BQ34">
-        <v>0.46</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="35" spans="1:72">
@@ -5216,16 +5216,16 @@
         <v>0</v>
       </c>
       <c r="BN35">
-        <v>0.49</v>
+        <v>0.95</v>
       </c>
       <c r="BO35">
-        <v>0.49</v>
+        <v>0.95</v>
       </c>
       <c r="BP35">
-        <v>0.49</v>
+        <v>0.95</v>
       </c>
       <c r="BQ35">
-        <v>0.49</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
